--- a/inventario.xlsx
+++ b/inventario.xlsx
@@ -8,37 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\evant\Desktop\Escritorio 2.0\UNI\2DO SEMESTRE\ALGORITMOS\Proyecto.py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1436DD8-CC2B-4220-ABD5-48441729ACEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2694545-9B41-4347-8443-8C47A37A53AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="1680" windowWidth="15585" windowHeight="9735" activeTab="1" xr2:uid="{93E0C28E-FE88-42F0-95A8-E2565C3A2DD9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
     <sheet name="Clientes" sheetId="2" r:id="rId2"/>
     <sheet name="Pedidos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">Nombre </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Producto</t>
   </si>
   <si>
     <t>Precio</t>
@@ -47,64 +33,88 @@
     <t xml:space="preserve">Existencia </t>
   </si>
   <si>
+    <t>Melón</t>
+  </si>
+  <si>
+    <t>Arroz</t>
+  </si>
+  <si>
+    <t>Leche</t>
+  </si>
+  <si>
+    <t>Huevos</t>
+  </si>
+  <si>
+    <t>Sal</t>
+  </si>
+  <si>
+    <t>Sopa en sobre</t>
+  </si>
+  <si>
+    <t>Consome</t>
+  </si>
+  <si>
+    <t>Jabon</t>
+  </si>
+  <si>
+    <t>Frijol</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
     <t>NIT</t>
   </si>
   <si>
-    <t>Dirección</t>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Juan Frnacisco</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>victor leonel</t>
+  </si>
+  <si>
+    <t>c/f</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>pedro casas</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>rodrigo mela</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>cf</t>
   </si>
   <si>
     <t>Nombre del Cliente</t>
   </si>
   <si>
+    <t>Nombre del Producto</t>
+  </si>
+  <si>
     <t>Cantidad de Producto</t>
   </si>
   <si>
-    <t>Nombre del Producto</t>
-  </si>
-  <si>
     <t>Valor de Pedido</t>
   </si>
   <si>
-    <t>Melón</t>
-  </si>
-  <si>
-    <t>Arroz</t>
-  </si>
-  <si>
-    <t>Leche</t>
-  </si>
-  <si>
-    <t>Huevos</t>
-  </si>
-  <si>
-    <t>Sal</t>
-  </si>
-  <si>
-    <t>Sopa en sobre</t>
-  </si>
-  <si>
-    <t>Consome</t>
-  </si>
-  <si>
-    <t>Jabon</t>
-  </si>
-  <si>
-    <t>Frijol</t>
-  </si>
-  <si>
-    <t>Juan Frnacisco</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Salvador</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
+    <t>Juna</t>
+  </si>
+  <si>
+    <t>arroz</t>
   </si>
 </sst>
 </file>
@@ -156,12 +166,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{482D0306-A5DD-488A-B64C-294BED442D69}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,12 +482,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB267C73-C21C-482A-84BD-5EBC3CA36CA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -499,7 +507,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -510,7 +518,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -521,7 +529,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -532,7 +540,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -543,7 +551,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -554,7 +562,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -565,7 +573,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -576,7 +584,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -587,7 +595,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -602,12 +610,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A1D4CB-A399-4643-9C5E-5D197FFE7899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -616,32 +622,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -649,10 +655,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>543811</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -660,18 +666,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>816526</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.25">
@@ -679,16 +680,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343EC4D7-0C0E-434D-9554-57848596FD78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,116 +701,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>Clientes!A2</f>
-        <v>Juan Frnacisco</v>
-      </c>
-      <c r="B2" t="str">
-        <f>Productos!A2</f>
-        <v>Melón</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>Clientes!A3</f>
-        <v>Juan Frnacisco</v>
-      </c>
-      <c r="B3" t="str">
-        <f>Productos!A3</f>
-        <v>Arroz</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>Clientes!A4</f>
-        <v>Juan Frnacisco</v>
-      </c>
-      <c r="B4" t="str">
-        <f>Productos!A4</f>
-        <v>Leche</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>Clientes!A5</f>
-        <v>Juan Frnacisco</v>
-      </c>
-      <c r="B5" t="str">
-        <f>Productos!A5</f>
-        <v>Huevos</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>Clientes!A6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" t="str">
-        <f>Productos!A6</f>
-        <v>Sal</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>Clientes!A7</f>
-        <v>0</v>
-      </c>
-      <c r="B7" t="str">
-        <f>Productos!A7</f>
-        <v>Sopa en sobre</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f>Clientes!A8</f>
-        <v>0</v>
-      </c>
-      <c r="B8" t="str">
-        <f>Productos!A8</f>
-        <v>Consome</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>Clientes!A9</f>
-        <v>0</v>
-      </c>
-      <c r="B9" t="str">
-        <f>Productos!A9</f>
-        <v>Jabon</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f>Clientes!A10</f>
-        <v>0</v>
-      </c>
-      <c r="B10" t="str">
-        <f>Productos!A10</f>
-        <v>Frijol</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>Clientes!A11</f>
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <f>Productos!A11</f>
-        <v>0</v>
+      <c r="D2">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
